--- a/report/sprint 2/daily scrum.xlsx
+++ b/report/sprint 2/daily scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="560" windowWidth="25020" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="161">
   <si>
     <t>Oct.1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,9 +452,6 @@
     <t>Oct.26th</t>
   </si>
   <si>
-    <t>Oct.28th</t>
-  </si>
-  <si>
     <t>Oct.29th</t>
   </si>
   <si>
@@ -500,12 +497,6 @@
     <t>Decide what user stories  should be done during sprint2 and begin test</t>
   </si>
   <si>
-    <t>Nov.12th</t>
-  </si>
-  <si>
-    <t>Nov.13th</t>
-  </si>
-  <si>
     <t>Prepare sprint2 review.</t>
   </si>
   <si>
@@ -533,15 +524,9 @@
     <t>Unit test and renew user stories.</t>
   </si>
   <si>
-    <t>Deciede what user story we should finish at first sprint</t>
-  </si>
-  <si>
     <t>Deciede what user story we should finish in the second sprint.</t>
   </si>
   <si>
-    <t>Check everyone's progress, and change their work. Schedule and record the meetings.</t>
-  </si>
-  <si>
     <t>Check all the members' progress and reallocate their work.</t>
   </si>
   <si>
@@ -564,6 +549,69 @@
   </si>
   <si>
     <t xml:space="preserve">Do unit test. Schedule and record the meetings. </t>
+  </si>
+  <si>
+    <t>Begin to implement making reservation function.</t>
+  </si>
+  <si>
+    <t>Continue implementing making reservation function.</t>
+  </si>
+  <si>
+    <t>Continue implementing making reservation function and discuss with other developers.</t>
+  </si>
+  <si>
+    <t>Deal the environment problem</t>
+  </si>
+  <si>
+    <t>Continue implementing confirming reservation function.</t>
+  </si>
+  <si>
+    <t>Begin to implement confirming reservation function.</t>
+  </si>
+  <si>
+    <t>Continue implementing confirming reservation function and discuss with other developers.</t>
+  </si>
+  <si>
+    <t>Discuss the three different acounts.</t>
+  </si>
+  <si>
+    <t>Fix Bug for the making reservation function</t>
+  </si>
+  <si>
+    <t>Fix Bug for the confirming reservation function</t>
+  </si>
+  <si>
+    <t>Begin to implement sending notification function.</t>
+  </si>
+  <si>
+    <t>Continue implementing sending notification function.</t>
+  </si>
+  <si>
+    <t>Continue implementing  sending notification function and discuss with other developers.</t>
+  </si>
+  <si>
+    <t>Fix Bug for the sending notification function</t>
+  </si>
+  <si>
+    <t>Design the making reservation page UI and research the algorithm</t>
+  </si>
+  <si>
+    <t>Complete the making reservation and confirming page</t>
+  </si>
+  <si>
+    <t>Design the confirming reservation page UI and research the algorithm</t>
+  </si>
+  <si>
+    <t>Complete the confirming reservation and confirming page</t>
+  </si>
+  <si>
+    <t>Design the sending notification page UI and research the algorithm</t>
+  </si>
+  <si>
+    <t>Complete the sending notification page</t>
+  </si>
+  <si>
+    <t>Nov.3rd</t>
   </si>
 </sst>
 </file>
@@ -1373,40 +1421,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="37.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -1415,385 +1463,385 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="41.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>89</v>
@@ -1805,180 +1853,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/sprint 2/daily scrum.xlsx
+++ b/report/sprint 2/daily scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="-1720" yWindow="960" windowWidth="25020" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="171">
   <si>
     <t>Oct.1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,15 +596,9 @@
     <t>Design the making reservation page UI and research the algorithm</t>
   </si>
   <si>
-    <t>Complete the making reservation and confirming page</t>
-  </si>
-  <si>
     <t>Design the confirming reservation page UI and research the algorithm</t>
   </si>
   <si>
-    <t>Complete the confirming reservation and confirming page</t>
-  </si>
-  <si>
     <t>Design the sending notification page UI and research the algorithm</t>
   </si>
   <si>
@@ -612,6 +606,46 @@
   </si>
   <si>
     <t>Nov.3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build the framework of the making reservation page
+</t>
+  </si>
+  <si>
+    <t>Fix the making reservation function bug. Connect to the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build the framework of the confirming reservation page.
+</t>
+  </si>
+  <si>
+    <t>Complete the making reservation page</t>
+  </si>
+  <si>
+    <t>Build the framework of the confirming reservation page.</t>
+  </si>
+  <si>
+    <t>Complete the confirming reservation page</t>
+  </si>
+  <si>
+    <t>Fix the confirming reservation page bug. Connect to the database.</t>
+  </si>
+  <si>
+    <t>Fix Bug for the confirming  reservation function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the backend code and disscus the algorithm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build the framework of the sending notification page
+</t>
+  </si>
+  <si>
+    <t>Build the framework of the sending notification page.</t>
+  </si>
+  <si>
+    <t>Fix the sending notification page bug. Connect to the database.</t>
   </si>
 </sst>
 </file>
@@ -662,12 +696,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:XFD96"/>
     </sheetView>
   </sheetViews>
@@ -1423,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1480,13 +1517,13 @@
         <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>154</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1584,13 +1621,13 @@
         <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -1616,7 +1653,7 @@
         <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -1636,13 +1673,13 @@
         <v>149</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1662,10 +1699,10 @@
         <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>157</v>
@@ -1699,7 +1736,7 @@
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>128</v>
@@ -1723,7 +1760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -1739,14 +1776,14 @@
       <c r="E13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>85</v>
+      <c r="F13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -1818,10 +1855,10 @@
         <v>153</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>153</v>
